--- a/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. So this committee will come to order. And pursuant to notice, we meet today to mark up four bipartisan measures. Without objection, all members may have 5 days to submit any statements for the record or any extraneous materials that they want to include on today's business.    All members were notified yesterday we intend to consider today's measures en bloc. And so, without objection, the following items previously provided to members will be considered en bloc and are considered as read.    And those are H.R. 2241, the Global Health Innovation Act of 2015, with the Sires amendment 210 to H.R. 2241. Second, H.R. 2845, the African Growth and Opportunity Act Enhancement Act of 2015. Third, H.R. 3750, the First Responders Passport Act of 2015, with the Issa amendment 50 in the nature of a substitute to this House resolution. And H.R. 3766, the Foreign Aid Transparency and Accountability Act of 2015.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    In true fashion, the AGOA Enhancement Act is bipartisan. And I want to think Chairman Royce, Ranking Member Engel, and the Africa Subcommittee chair, Chris Smith, for their longstanding and consistent support of AGOA and their foresight regarding the need to ensure that the reauthorized AGOA is implemented in a transparent and effective manner and supported by complementary legislation, such as the AGOA Enhancement Act.    I also want to thank the HFAC committee staffers who worked long and hard and creatively on this bill to ensure its relevancy and complementary support of AGOA.    The AGOA Enhancement Act does exactly what its title suggests, it enhances AGOA by strengthening transparency and commonsense priorities aimed at enabling eligible AGOA countries to utilize AGOA benefits more effectively by obtaining greater access to information about AGOA, developing trade capacity building, and expanding regional economic coordination.    Transparency is addressed by requiring the administration to, for example, create an AGOA Web site for the collection and dissemination of information regarding AGOA. Trade capacity building is addressed by requiring that the administration encourage and facilitate transboundary cooperation among eligible African countries in order to facilitate trade and encourage the provision of technical assistance to eligible African countries.    H.R. 2845 also recognizes the unique role played by the U.S. Millennium Challenge Corporation, or MCC--and I want to take a moment to acknowledge MCC's leadership and their stellar staff--in economic development and its success working with nations to improve economic growth and address regional integration. MCC is enabled to work with partner countries on a regional basis. The MCC requested this authority as a way to better leverage and facilitate economic growth through its investments and supports this provision being included.    Over the next 10 years, Africa will become an even more important part of the world economy with a large youthful population that is increasingly university educated, tech savvy, and entrepreneurial. Without question, it is in the interest of the United States and the countries of Africa, the world's new economic frontier, that we work together toward a stronger and mutually beneficial economic relationship that will stand the test of time.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman. Thank you for calling up these bipartisan measures. It is good, as always, to see our committee working together to advance legislation and getting it to the House floor.    Let me begin with Chairman Royce's measure, the African Growth and Opportunity Act Enhancement Act of 2015. Earlier this year, Congress authorized the African Growth and Opportunity Act through 2025. That bill seeks to promote trade between Africa and the United States, but it has become clear that a number of eligible countries lack sufficient capacity to reap the program's benefits.    H.R. 2845, which I am proud to cosponsor along with Rep. Bass and Rep. Smith, would encourage the United States to work with sub-Saharan African governments to improve the rule of law, strengthen and expand the private sector, reduce bureaucratic barriers to trade, and promote the role of women on the continent.    In short, this bill seeks to improve investment, trade, and job growth in the region. This, in turn, would strengthen the global economy and encourage development in sub-Saharan Africa, two priorities for this committee.    Let me next thank my friend, Albio Sires, for introducing H.R. 2241, the Global Health Innovation Act of 2015. The Ebola epidemic and other public health crises remind us there is a vital need for the United States to maintain our research and development efforts and response capabilities in the health field.    Over the years, USAID has made some major advances in health research and development. We have seen that through innovative programs such as the Malaria Vaccine Development Program. And successive administrations have rightly supported a significant expansion of those efforts.    H.R. 2241 directs USAID to report annually to Congress on its new programs, projects, and activities related to global health. It is important that the Agency continues to focus on innovation, and it is important for the Congress to make sure that the resources it receives are spent in the most effective way possible.    Next, I would like to thank Rep. Issa for introducing H.R. 3750, and I am proud to be a cosponsor of this measure. This bill would authorize the Secretary of State to waive passport fees for the brave Americans who help other countries in times of natural disaster.    USAID search-and-rescue teams based in Fairfax County, Virginia, Miami-Dade County, Florida, and Los Angeles County, California, have played an essential role in the aftermath of many overseas natural disasters, including earthquakes that have struck Nepal, Haiti, Japan, and New Zealand. These teams provide specialized capabilities and demonstrate our commitment to international partners during times of need.    We need to be ready to respond, and waiving passport fees is the least we can do for Americans who risk life and limb to help other countries during times of despair. The State Department and USAID support this measure, and I urge my colleagues to do so as well.    And finally, let me thank Congressman Poe for introducing the Foreign Aid Transparency and Accountability Act, along with Congressman Connolly for his hard work on this measure. The State Department, under Secretary Hillary Clinton, and USAID, under the leadership of Raj Shah, took major steps to improve monitoring, evaluation, and transparency in our foreign assistance programs.    These improvements include the first-ever Presidential policy directive on development in the Foreign Assistance Dashboard, an initiative that collects information from across the Federal Government, increasing transparency in foreign assistance programs.    This legislation seeks to double down on these groundbreaking efforts to help the government and the American people better understand how their development investments improve lives around the world.    So again, Mr. Chairman, thank you for your work, as usual, to move forward with these bills and on all these subjects. And, as always, thank you for working with us in a bipartisan manner. I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I want to thank the chairman and the ranking member for moving this legislation forward. And I also want to thank my friend from Virginia, Mr. Connolly, for his work on the foreign aid bill that we are talking about today. H.R. 3766.    Foreign assistance has been around 50 years-plus. And what this legislation does is make that assistance transparent, let the American public and everyone else know what we are doing all over the world, and make it easy to understand. Some of the postings by government agencies regarding what they are doing are so complicated you can't figure out what that means.    So the transparency aspect is the first aspect of this legislation, transparent about foreign assistance, and make it easy for everyone to understand what we are doing, the good that we are doing throughout the world.    The second half of this legislation is to evaluate those programs. One would think that we have over the years evaluated foreign assistance, but we haven't really evaluated it to see whether it is working or not. So an evaluation is required of departments that give American money as assistance, evaluate those programs to see, first of all, if they are reaching the goal of the program and the assistance. And if it is not reaching that goal, then we need to evaluate whether we should continue that type of assistance.    We continue to give money to certain programs and we really don't know whether it is working to solve the problem of hunger or water or whatever it is somewhere in the world. So the evaluation must take place by all these departments, evaluate the things that are working, things that continue to work and are doing good assistance. We may continue those. And if it is not working, then we need to stop that program.    So it is an audit, I would call it an audit of foreign assistance that we are doing. If it works, continue to do it. If not, then reevaluate it, maybe we should not. One percent of the budget goes to foreign assistance. Therefore, with the limited money, we certainly should find out what we are doing, transparency, and we should also find out and evaluate all of the programs to see whether they are a success or not.    And thank you, Mr. Chairman. I will yield back.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. No. No. I wasn't quite sure what you were looking at.    I thank the chair and the ranking member for putting this on the agenda today. And I want to thank Judge Poe for his leadership. We have been doing this together for a couple of years now and we are so glad to have it.    This bill directs the President to establish monitoring and evaluation guidelines for the 22 Federal agencies charged with implementing development and economic assistance programs abroad, chief among them, of course, USAID. The guidelines will require M&amp;E plans as part of the project development process and agencies will be encouraged to incorporate the findings of project evaluations and impact studies.    Aid programs that are held accountable for their performance and results can be made more effective, as Judge Poe just indicated, and their impact on communities and countries abroad more easily measured. And if we do that, as Judge Poe just said, we can dispel the notion in public polling that, apparently, foreign assistance is 26 percent of the Federal budget, when, of course, it is less than 1 percent.    The U.S. foreign assistance operation does not lack passion. The men and women who put themselves in harm's way in often very remote parts of the globe or take their families to those parts of the world in the interest of helping vulnerable populations certainly aren't seeking glory, fame, or fortune. They do it because they envision a path to prosperity for others even in the most poverty-stricken areas of the world.    While our passion is well defined, our mission and metrics are not. Regarding the mission, I was a staffer on the Senate Foreign Relations Committee that wrote the last foreign aid authorization bill passed by Congress back in 1986. In that time, we had, like, five principal goals. Today, we have 260.    And the mission is not clear. The mission statement just a year ago for USAID read: ``USAID accelerates human progress in developing countries by reducing poverty, advancing democracy, building market economies, promoting security, responding to crises, and improving quality of life. Working with governance institutions and civil society, we assist individuals to build their own futures by mobilizing the full range of American public and private resources through our expert presence overseas.'' That is not a clear mission.    So I am hopeful, Mr. Chairman, this bill will help focus--refocus--U.S. foreign assistance programs in a more efficacious way. And I am proud to call myself a cosponsor of this legislation and am, again, grateful for Judge Poe for his leadership. I yield back.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman. And in the case of H.R. 3750, I will be very brief.    The State Department has needed this authority for a long time, although on a routine basis there are as few as 450 individuals that this would cover in the way of first responders, and at any given time, with a typical 10-year passport, only a few would need it.    However, if there is a catastrophic event somewhere within the world and we call on a large number of first responders, many of whom may not have current passports, the ability to quickly waive it is a capability the State Department would want and need if the United States Government is directing these first responders to go to the distressed area.    And as CBO has scored it as narrowly targeted, fixed, and it will be a negligible amount and can be paid out of existing funds, it has no CBO score. It is something the State Department very much believes is in their best interest to have in the case of a major event and will have a de minimus cost compared to the cost of transporting those individuals and the benefit to America of having first responders go to the scene of a catastrophe.    And so I urge the support. And I yield back.</t>
   </si>
   <si>
@@ -122,9 +104,6 @@
   </si>
   <si>
     <t>412186</t>
-  </si>
-  <si>
-    <t>Albio Sires</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sires. I want to start by thanking Chairman Royce, Ranking Member Engel for their work on global health and their efforts to mark up this bill. I would also like to thank the many members of this committee who have cosponsored this bill and all the staff that worked on this bill.    H.R. 2241, the Global Health Innovation Act, is a bill that will provide the oversight needed to gain a clearer picture of USAID's global health research and development. Over the years, research and development projects have greatly expanded at USAID in searching for advancement toward an HIV- and AIDS-free generation, in preventable maternal and childhood death, and preventable infectious disease.    This legislation is an effort to keep up with the scope of USAID's expanded effort and ensure their research and development activities reflect their goals and priorities. This report asks them to provide clarity on their goals and metrics to better understand their work. H.R. 2241 directs the USAID's Administrator to report annually to Congress on the development and use of global health innovations in USAID's programs, projects, and activities.    The report must also include how the Agency measures progress, investment, and development toward their health-related goals. Lastly, the amendment I introduced will sunset this requirement after five reports.    I thank the committee for their time and urge my colleagues to support this legislation. I yield back.</t>
@@ -529,11 +508,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -555,11 +532,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -579,13 +554,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -607,11 +580,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -631,13 +602,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -659,11 +628,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -683,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -711,11 +676,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -735,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -763,11 +724,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -787,13 +746,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -815,11 +772,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -839,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -867,11 +820,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. So this committee will come to order. And pursuant to notice, we meet today to mark up four bipartisan measures. Without objection, all members may have 5 days to submit any statements for the record or any extraneous materials that they want to include on today's business.    All members were notified yesterday we intend to consider today's measures en bloc. And so, without objection, the following items previously provided to members will be considered en bloc and are considered as read.    And those are H.R. 2241, the Global Health Innovation Act of 2015, with the Sires amendment 210 to H.R. 2241. Second, H.R. 2845, the African Growth and Opportunity Act Enhancement Act of 2015. Third, H.R. 3750, the First Responders Passport Act of 2015, with the Issa amendment 50 in the nature of a substitute to this House resolution. And H.R. 3766, the Foreign Aid Transparency and Accountability Act of 2015.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    In true fashion, the AGOA Enhancement Act is bipartisan. And I want to think Chairman Royce, Ranking Member Engel, and the Africa Subcommittee chair, Chris Smith, for their longstanding and consistent support of AGOA and their foresight regarding the need to ensure that the reauthorized AGOA is implemented in a transparent and effective manner and supported by complementary legislation, such as the AGOA Enhancement Act.    I also want to thank the HFAC committee staffers who worked long and hard and creatively on this bill to ensure its relevancy and complementary support of AGOA.    The AGOA Enhancement Act does exactly what its title suggests, it enhances AGOA by strengthening transparency and commonsense priorities aimed at enabling eligible AGOA countries to utilize AGOA benefits more effectively by obtaining greater access to information about AGOA, developing trade capacity building, and expanding regional economic coordination.    Transparency is addressed by requiring the administration to, for example, create an AGOA Web site for the collection and dissemination of information regarding AGOA. Trade capacity building is addressed by requiring that the administration encourage and facilitate transboundary cooperation among eligible African countries in order to facilitate trade and encourage the provision of technical assistance to eligible African countries.    H.R. 2845 also recognizes the unique role played by the U.S. Millennium Challenge Corporation, or MCC--and I want to take a moment to acknowledge MCC's leadership and their stellar staff--in economic development and its success working with nations to improve economic growth and address regional integration. MCC is enabled to work with partner countries on a regional basis. The MCC requested this authority as a way to better leverage and facilitate economic growth through its investments and supports this provision being included.    Over the next 10 years, Africa will become an even more important part of the world economy with a large youthful population that is increasingly university educated, tech savvy, and entrepreneurial. Without question, it is in the interest of the United States and the countries of Africa, the world's new economic frontier, that we work together toward a stronger and mutually beneficial economic relationship that will stand the test of time.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman. Thank you for calling up these bipartisan measures. It is good, as always, to see our committee working together to advance legislation and getting it to the House floor.    Let me begin with Chairman Royce's measure, the African Growth and Opportunity Act Enhancement Act of 2015. Earlier this year, Congress authorized the African Growth and Opportunity Act through 2025. That bill seeks to promote trade between Africa and the United States, but it has become clear that a number of eligible countries lack sufficient capacity to reap the program's benefits.    H.R. 2845, which I am proud to cosponsor along with Rep. Bass and Rep. Smith, would encourage the United States to work with sub-Saharan African governments to improve the rule of law, strengthen and expand the private sector, reduce bureaucratic barriers to trade, and promote the role of women on the continent.    In short, this bill seeks to improve investment, trade, and job growth in the region. This, in turn, would strengthen the global economy and encourage development in sub-Saharan Africa, two priorities for this committee.    Let me next thank my friend, Albio Sires, for introducing H.R. 2241, the Global Health Innovation Act of 2015. The Ebola epidemic and other public health crises remind us there is a vital need for the United States to maintain our research and development efforts and response capabilities in the health field.    Over the years, USAID has made some major advances in health research and development. We have seen that through innovative programs such as the Malaria Vaccine Development Program. And successive administrations have rightly supported a significant expansion of those efforts.    H.R. 2241 directs USAID to report annually to Congress on its new programs, projects, and activities related to global health. It is important that the Agency continues to focus on innovation, and it is important for the Congress to make sure that the resources it receives are spent in the most effective way possible.    Next, I would like to thank Rep. Issa for introducing H.R. 3750, and I am proud to be a cosponsor of this measure. This bill would authorize the Secretary of State to waive passport fees for the brave Americans who help other countries in times of natural disaster.    USAID search-and-rescue teams based in Fairfax County, Virginia, Miami-Dade County, Florida, and Los Angeles County, California, have played an essential role in the aftermath of many overseas natural disasters, including earthquakes that have struck Nepal, Haiti, Japan, and New Zealand. These teams provide specialized capabilities and demonstrate our commitment to international partners during times of need.    We need to be ready to respond, and waiving passport fees is the least we can do for Americans who risk life and limb to help other countries during times of despair. The State Department and USAID support this measure, and I urge my colleagues to do so as well.    And finally, let me thank Congressman Poe for introducing the Foreign Aid Transparency and Accountability Act, along with Congressman Connolly for his hard work on this measure. The State Department, under Secretary Hillary Clinton, and USAID, under the leadership of Raj Shah, took major steps to improve monitoring, evaluation, and transparency in our foreign assistance programs.    These improvements include the first-ever Presidential policy directive on development in the Foreign Assistance Dashboard, an initiative that collects information from across the Federal Government, increasing transparency in foreign assistance programs.    This legislation seeks to double down on these groundbreaking efforts to help the government and the American people better understand how their development investments improve lives around the world.    So again, Mr. Chairman, thank you for your work, as usual, to move forward with these bills and on all these subjects. And, as always, thank you for working with us in a bipartisan manner. I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. I want to thank the chairman and the ranking member for moving this legislation forward. And I also want to thank my friend from Virginia, Mr. Connolly, for his work on the foreign aid bill that we are talking about today. H.R. 3766.    Foreign assistance has been around 50 years-plus. And what this legislation does is make that assistance transparent, let the American public and everyone else know what we are doing all over the world, and make it easy to understand. Some of the postings by government agencies regarding what they are doing are so complicated you can't figure out what that means.    So the transparency aspect is the first aspect of this legislation, transparent about foreign assistance, and make it easy for everyone to understand what we are doing, the good that we are doing throughout the world.    The second half of this legislation is to evaluate those programs. One would think that we have over the years evaluated foreign assistance, but we haven't really evaluated it to see whether it is working or not. So an evaluation is required of departments that give American money as assistance, evaluate those programs to see, first of all, if they are reaching the goal of the program and the assistance. And if it is not reaching that goal, then we need to evaluate whether we should continue that type of assistance.    We continue to give money to certain programs and we really don't know whether it is working to solve the problem of hunger or water or whatever it is somewhere in the world. So the evaluation must take place by all these departments, evaluate the things that are working, things that continue to work and are doing good assistance. We may continue those. And if it is not working, then we need to stop that program.    So it is an audit, I would call it an audit of foreign assistance that we are doing. If it works, continue to do it. If not, then reevaluate it, maybe we should not. One percent of the budget goes to foreign assistance. Therefore, with the limited money, we certainly should find out what we are doing, transparency, and we should also find out and evaluate all of the programs to see whether they are a success or not.    And thank you, Mr. Chairman. I will yield back.</t>
   </si>
   <si>
@@ -88,6 +115,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. No. No. I wasn't quite sure what you were looking at.    I thank the chair and the ranking member for putting this on the agenda today. And I want to thank Judge Poe for his leadership. We have been doing this together for a couple of years now and we are so glad to have it.    This bill directs the President to establish monitoring and evaluation guidelines for the 22 Federal agencies charged with implementing development and economic assistance programs abroad, chief among them, of course, USAID. The guidelines will require M&amp;E plans as part of the project development process and agencies will be encouraged to incorporate the findings of project evaluations and impact studies.    Aid programs that are held accountable for their performance and results can be made more effective, as Judge Poe just indicated, and their impact on communities and countries abroad more easily measured. And if we do that, as Judge Poe just said, we can dispel the notion in public polling that, apparently, foreign assistance is 26 percent of the Federal budget, when, of course, it is less than 1 percent.    The U.S. foreign assistance operation does not lack passion. The men and women who put themselves in harm's way in often very remote parts of the globe or take their families to those parts of the world in the interest of helping vulnerable populations certainly aren't seeking glory, fame, or fortune. They do it because they envision a path to prosperity for others even in the most poverty-stricken areas of the world.    While our passion is well defined, our mission and metrics are not. Regarding the mission, I was a staffer on the Senate Foreign Relations Committee that wrote the last foreign aid authorization bill passed by Congress back in 1986. In that time, we had, like, five principal goals. Today, we have 260.    And the mission is not clear. The mission statement just a year ago for USAID read: ``USAID accelerates human progress in developing countries by reducing poverty, advancing democracy, building market economies, promoting security, responding to crises, and improving quality of life. Working with governance institutions and civil society, we assist individuals to build their own futures by mobilizing the full range of American public and private resources through our expert presence overseas.'' That is not a clear mission.    So I am hopeful, Mr. Chairman, this bill will help focus--refocus--U.S. foreign assistance programs in a more efficacious way. And I am proud to call myself a cosponsor of this legislation and am, again, grateful for Judge Poe for his leadership. I yield back.</t>
   </si>
   <si>
@@ -97,6 +130,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman. And in the case of H.R. 3750, I will be very brief.    The State Department has needed this authority for a long time, although on a routine basis there are as few as 450 individuals that this would cover in the way of first responders, and at any given time, with a typical 10-year passport, only a few would need it.    However, if there is a catastrophic event somewhere within the world and we call on a large number of first responders, many of whom may not have current passports, the ability to quickly waive it is a capability the State Department would want and need if the United States Government is directing these first responders to go to the distressed area.    And as CBO has scored it as narrowly targeted, fixed, and it will be a negligible amount and can be paid out of existing funds, it has no CBO score. It is something the State Department very much believes is in their best interest to have in the case of a major event and will have a de minimus cost compared to the cost of transporting those individuals and the benefit to America of having first responders go to the scene of a catastrophe.    And so I urge the support. And I yield back.</t>
   </si>
   <si>
@@ -104,6 +143,12 @@
   </si>
   <si>
     <t>412186</t>
+  </si>
+  <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sires. I want to start by thanking Chairman Royce, Ranking Member Engel for their work on global health and their efforts to mark up this bill. I would also like to thank the many members of this committee who have cosponsored this bill and all the staff that worked on this bill.    H.R. 2241, the Global Health Innovation Act, is a bill that will provide the oversight needed to gain a clearer picture of USAID's global health research and development. Over the years, research and development projects have greatly expanded at USAID in searching for advancement toward an HIV- and AIDS-free generation, in preventable maternal and childhood death, and preventable infectious disease.    This legislation is an effort to keep up with the scope of USAID's expanded effort and ensure their research and development activities reflect their goals and priorities. This report asks them to provide clarity on their goals and metrics to better understand their work. H.R. 2241 directs the USAID's Administrator to report annually to Congress on the development and use of global health innovations in USAID's programs, projects, and activities.    The report must also include how the Agency measures progress, investment, and development toward their health-related goals. Lastly, the amendment I introduced will sunset this requirement after five reports.    I thank the committee for their time and urge my colleagues to support this legislation. I yield back.</t>
@@ -458,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +511,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,341 +533,414 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97463.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400122</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Engel</t>
@@ -503,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +523,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,411 +548,456 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
